--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_1_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_1_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.945115337703164, 50.163885855489944]</t>
+          <t>[49.94527471033013, 50.16372648286298]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.90146033578882, 50.05260252518891]</t>
+          <t>[49.90145911349605, 50.052603747481676]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.86501664096052, 50.168724696156715]</t>
+          <t>[49.86561569501549, 50.16812564210174]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.90810263299734, 50.07480675161011]</t>
+          <t>[49.908084765869816, 50.07482461873764]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.79374495011345, 50.125075271225214]</t>
+          <t>[49.80139007182887, 50.117430149509794]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.89964347509073, 50.06624944045549]</t>
+          <t>[49.89960319885188, 50.06628971669434]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.88117680498464, 50.168504710535395]</t>
+          <t>[49.87809810444453, 50.1715834110755]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.8951327918238, 50.05119247300851]</t>
+          <t>[49.89504896268212, 50.05127630215019]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.910726258853444, 50.18954935064059]</t>
+          <t>[49.91152778027285, 50.188747829221185]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.899161912992945, 50.078381903906724]</t>
+          <t>[49.899205656629924, 50.078338160269745]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.77572871072328, 50.026699359370134]</t>
+          <t>[49.77665002128777, 50.02577804880564]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.91396095070046, 50.067711733461735]</t>
+          <t>[49.91390865913977, 50.06776402502242]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.87680499233415, 50.163399059071104]</t>
+          <t>[49.87667023090828, 50.16353382049697]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.949820363243674, 50.10435126059586]</t>
+          <t>[49.94984832387235, 50.104323299967184]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.91114881248879, 50.12594630127164]</t>
+          <t>[49.91118246994455, 50.12591264381588]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.943729308574, 50.09085175590911]</t>
+          <t>[49.94373607699038, 50.09084498749272]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.81411860505134, 50.12030079609982]</t>
+          <t>[49.81341277432795, 50.12100662682321]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.82477400794307, 49.99243093512349]</t>
+          <t>[49.82471374825896, 49.9924911948076]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.95703317195849, 50.2957613411079]</t>
+          <t>[49.96075630577617, 50.29203820729022]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.84752502197587, 50.01969686011529]</t>
+          <t>[49.847570840443524, 50.019651041647634]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[49.90164935033979, 50.15225615470553]</t>
+          <t>[49.90061077025134, 50.15329473479398]</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.92535887204765, 50.07464055200873]</t>
+          <t>[49.92545543012937, 50.074543993927016]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[49.99220798616476, 50.26058603143248]</t>
+          <t>[49.99300163754307, 50.25979238005417]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.98040280298326, 50.15237416074866]</t>
+          <t>[49.98040141297026, 50.152375550761654]</t>
         </is>
       </c>
       <c r="V13" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_1_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_per_day_fixed_period_1_sine_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[49.94527471033013, 50.16372648286298]</t>
+          <t>[49.945271409601325, 50.16372978359178]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.90145911349605, 50.052603747481676]</t>
+          <t>[49.90146744058132, 50.05259542039641]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,7 +685,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[49.86561569501549, 50.16812564210174]</t>
+          <t>[49.86661311764762, 50.16712821946962]</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.908084765869816, 50.07482461873764]</t>
+          <t>[49.90815003776327, 50.07475934684418]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[49.80139007182887, 50.117430149509794]</t>
+          <t>[49.804343485746514, 50.11447673559215]</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.89960319885188, 50.06628971669434]</t>
+          <t>[49.89968587875066, 50.06620703679556]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[49.87809810444453, 50.1715834110755]</t>
+          <t>[49.878275417424476, 50.17140609809556]</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[49.89504896268212, 50.05127630215019]</t>
+          <t>[49.895189066524345, 50.051136198307965]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,7 +943,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[49.91152778027285, 50.188747829221185]</t>
+          <t>[49.91230904206917, 50.187966567424866]</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.899205656629924, 50.078338160269745]</t>
+          <t>[49.89921852001841, 50.07832529688126]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[49.77665002128777, 50.02577804880564]</t>
+          <t>[49.77806968367865, 50.02435838641476]</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.91390865913977, 50.06776402502242]</t>
+          <t>[49.91402675199802, 50.06764593216417]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[49.87667023090828, 50.16353382049697]</t>
+          <t>[49.87474312207116, 50.165460929334095]</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.94984832387235, 50.104323299967184]</t>
+          <t>[49.94992922434041, 50.10424239949913]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[49.91118246994455, 50.12591264381588]</t>
+          <t>[49.91135042407447, 50.12574468968596]</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[49.94373607699038, 50.09084498749272]</t>
+          <t>[49.94390807678051, 50.0906729877026]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[49.81341277432795, 50.12100662682321]</t>
+          <t>[49.81222158071689, 50.12219782043427]</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.82471374825896, 49.9924911948076]</t>
+          <t>[49.82472251390509, 49.99248242916147]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[49.96075630577617, 50.29203820729022]</t>
+          <t>[49.955999568778594, 50.2967949442878]</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.847570840443524, 50.019651041647634]</t>
+          <t>[49.84755064644924, 50.019671235641916]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[49.90061077025134, 50.15329473479398]</t>
+          <t>[49.90084303771747, 50.15306246732785]</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[49.92545543012937, 50.074543993927016]</t>
+          <t>[49.92523162304011, 50.07476780101627]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[49.99300163754307, 50.25979238005417]</t>
+          <t>[49.99502740079969, 50.25776661679755]</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.98040141297026, 50.152375550761654]</t>
+          <t>[49.980470387760114, 50.1523065759718]</t>
         </is>
       </c>
       <c r="V13" t="n">
